--- a/records.xlsx
+++ b/records.xlsx
@@ -2,14 +2,15 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="760" windowWidth="29400" windowHeight="16580" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
-  <calcPr calcId="0" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -49,7 +50,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -414,17 +415,11 @@
   </sheetPr>
   <dimension ref="A1:F3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
-  <cols>
-    <col width="12.83203125" bestFit="1" customWidth="1" min="4" max="4"/>
-    <col width="10.1640625" bestFit="1" customWidth="1" min="5" max="5"/>
-    <col width="7.5" bestFit="1" customWidth="1" min="6" max="6"/>
-    <col width="6.83203125" bestFit="1" customWidth="1" min="7" max="7"/>
-  </cols>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="inlineStr">
@@ -460,56 +455,56 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Hari</t>
+          <t>ae</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Vashishtha</t>
+          <t>das</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>DOnt know</t>
+          <t>das</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>2025-04-01</t>
+          <t>2025-04-04</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Ongoing</t>
+          <t>Completed</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Avi</t>
+          <t>s</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Neogi</t>
+          <t>ds</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Kno</t>
+          <t>ds</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>2025-04-02</t>
+          <t>2025-04-10</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">

--- a/records.xlsx
+++ b/records.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -455,61 +455,31 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>ae</t>
+          <t>a</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>das</t>
+          <t>as</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>das</t>
+          <t>sa</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>2025-04-04</t>
+          <t>2025-05-05</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Completed</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>5</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>s</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>ds</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>ds</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>2025-04-10</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Planned</t>
+          <t>Delayed</t>
         </is>
       </c>
     </row>
